--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>开票收入</t>
   </si>
@@ -34,31 +34,19 @@
     <t>不含税金额</t>
   </si>
   <si>
-    <t>{{$fe:list2 t t.contractUser}}</t>
+    <t>{{$fe:list t t.contractUser}}</t>
   </si>
   <si>
-    <t>{{$fe:list1 t t.invoiceAmount</t>
+    <t>t.specialInvoiceAmount</t>
   </si>
   <si>
-    <t>t.noTaxAmount}}</t>
+    <t>t.specialNoTaxAmount</t>
   </si>
   <si>
-    <t>{{$fe:list2 t t.invoiceAmount</t>
+    <t>t.commonInvoiceAmount</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>{{sumSpecialInvoiceAmount}}</t>
-  </si>
-  <si>
-    <t>{{sumSpecialNoTaxAmount}}</t>
-  </si>
-  <si>
-    <t>{{sumCommonInvoiceAmount}}</t>
-  </si>
-  <si>
-    <t>{{sumCommonNoTaxAmount}}</t>
+    <t>t.commonNoTaxAmount}}</t>
   </si>
 </sst>
 </file>
@@ -66,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,17 +75,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -106,14 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +134,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -134,113 +218,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,43 +234,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +450,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -493,6 +509,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,207 +534,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,12 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1094,60 +1065,8 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -34,7 +34,7 @@
     <t>不含税金额</t>
   </si>
   <si>
-    <t>{{$fe:list t t.contractUser}}</t>
+    <t>{{$fe:list  t.contractUser</t>
   </si>
   <si>
     <t>t.specialInvoiceAmount</t>
@@ -55,9 +55,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,6 +89,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -97,15 +104,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,8 +135,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,29 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -165,47 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +189,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,181 +234,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,26 +470,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,142 +539,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11920"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>开票收入</t>
   </si>
@@ -25,6 +25,12 @@
     <t>普通发票</t>
   </si>
   <si>
+    <t>合计收入</t>
+  </si>
+  <si>
+    <t>当年年度收入累计</t>
+  </si>
+  <si>
     <t>项目负责人</t>
   </si>
   <si>
@@ -46,7 +52,19 @@
     <t>t.commonInvoiceAmount</t>
   </si>
   <si>
-    <t>t.commonNoTaxAmount}}</t>
+    <t>t.commonNoTaxAmount</t>
+  </si>
+  <si>
+    <t>t.totalInvoiceAmount</t>
+  </si>
+  <si>
+    <t>t.totalNoTaxAmount</t>
+  </si>
+  <si>
+    <t>t.totalThisYearInvoiceAmount</t>
+  </si>
+  <si>
+    <t>t.totalThisYearNoTaxAmount}}</t>
   </si>
 </sst>
 </file>
@@ -54,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -76,19 +94,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -96,6 +115,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -113,15 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,32 +169,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,13 +232,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,181 +252,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,6 +499,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +535,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -519,168 +552,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,15 +1031,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,39 +1051,69 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,7 +94,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,135 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,8 +458,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,17 +488,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +514,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,177 +552,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,12 +1037,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,12 +1054,14 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1074,16 +1079,16 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1103,16 +1108,16 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="13900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,23 +101,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,20 +217,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,88 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,85 +246,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,102 +426,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -443,6 +443,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -468,33 +494,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,15 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,157 +552,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,8 +738,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,10 +1075,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <cols>
+    <col min="8" max="8" width="11.4553571428571" customWidth="1"/>
+    <col min="9" max="9" width="24.9910714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1057,11 +1099,11 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1079,16 +1121,16 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1108,23 +1150,25 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,28 +43,28 @@
     <t>{{$fe:list  t.contractUser</t>
   </si>
   <si>
-    <t>t.specialInvoiceAmount</t>
-  </si>
-  <si>
-    <t>t.specialNoTaxAmount</t>
-  </si>
-  <si>
-    <t>t.commonInvoiceAmount</t>
-  </si>
-  <si>
-    <t>t.commonNoTaxAmount</t>
-  </si>
-  <si>
-    <t>t.totalInvoiceAmount</t>
-  </si>
-  <si>
-    <t>t.totalNoTaxAmount</t>
-  </si>
-  <si>
-    <t>t.totalThisYearInvoiceAmount</t>
-  </si>
-  <si>
-    <t>t.totalThisYearNoTaxAmount}}</t>
+    <t>fn:(t.specialInvoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.specialNoTaxAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.commonInvoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.commonNoTaxAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.totalInvoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.totalNoTaxAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.totalThisYearInvoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.totalThisYearNoTaxAmount;###.##)}}</t>
   </si>
 </sst>
 </file>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,13 +94,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,6 +102,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,40 +152,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,66 +236,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,55 +252,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,115 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,26 +484,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,16 +521,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,152 +583,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,14 +744,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,7 +1069,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1100,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1121,16 +1115,16 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1150,16 +1144,16 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProjects\invoice\src\main\resources\static\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>开票收入</t>
   </si>
@@ -75,8 +70,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,21 +93,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -155,9 +480,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -168,9 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,18 +744,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,46 +1060,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="1" max="9" width="12.9464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,20 +1114,20 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -533,16 +1143,16 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -553,7 +1163,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excel/receiptGatherUser.xlsx
+++ b/src/main/resources/static/excel/receiptGatherUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15480"/>
+    <workbookView windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <t>普通发票</t>
   </si>
   <si>
-    <t>合计收入</t>
-  </si>
-  <si>
-    <t>当年年度收入累计</t>
+    <t>{{currentCom}}</t>
+  </si>
+  <si>
+    <t>{{thisYearCom}}</t>
   </si>
   <si>
     <t>项目负责人</t>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,17 +93,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,22 +118,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +178,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,9 +195,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,44 +210,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +246,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,13 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +485,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -516,11 +525,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,21 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -563,168 +578,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="2"/>
